--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$5</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -529,11 +531,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="8.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,6 +656,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -540,7 +540,7 @@
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -134,7 +134,7 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -531,16 +531,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1">
+    <row r="3" spans="1:7" ht="14" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
+    <row r="4" spans="1:7" ht="14" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
+    <row r="5" spans="1:7" ht="14" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy-MM-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -129,11 +132,14 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,7 +579,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43845</v>
       </c>
       <c r="E2" s="1">
@@ -596,7 +602,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>43546</v>
       </c>
       <c r="E3" s="1">
@@ -619,7 +625,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>44387</v>
       </c>
       <c r="E4" s="1">
@@ -642,7 +648,7 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43409</v>
       </c>
       <c r="E5" s="1">

--- a/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.ToStream.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Employee ID</t>
   </si>
@@ -46,9 +46,6 @@
     <t>john@company.com</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Full Time</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>bob@company.com</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Part Time</t>
@@ -585,11 +579,11 @@
       <c r="E2" s="1">
         <v>75000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" customHeight="1">
@@ -597,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>43546</v>
@@ -608,11 +602,11 @@
       <c r="E3" s="1">
         <v>120000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" customHeight="1">
@@ -620,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>44387</v>
@@ -631,11 +625,11 @@
       <c r="E4" s="1">
         <v>45000</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" customHeight="1">
@@ -643,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>43409</v>
@@ -654,11 +648,11 @@
       <c r="E5" s="1">
         <v>95000</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
